--- a/数据整理/stocks/A股/创业板/300070-碧水源.xlsx
+++ b/数据整理/stocks/A股/创业板/300070-碧水源.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>62.18</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.64</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4997</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>74.22</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.83</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>91.16</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.35</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001849</t>
+          <t>161838</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源强势共识100强等权重股票</t>
+          <t>银华创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>9.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>95.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5035</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -650,26 +710,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161838</t>
+          <t>001849</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银华创业板两年定期开放混合</t>
+          <t>前海开源强势共识100强等权重股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>95.86</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300070-碧水源.xlsx
+++ b/数据整理/stocks/A股/创业板/300070-碧水源.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -745,4 +746,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>540008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1555</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4396</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512780</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证京津冀协同发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300070-碧水源.xlsx
+++ b/数据整理/stocks/A股/创业板/300070-碧水源.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -992,4 +993,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>540008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>108.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3806</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>83.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4692</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011578</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1153</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7661</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011579</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2916</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519951</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008071</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007863</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300070-碧水源.xlsx
+++ b/数据整理/stocks/A股/创业板/300070-碧水源.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1467,4 +1468,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300070-碧水源.xlsx
+++ b/数据整理/stocks/A股/创业板/300070-碧水源.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1476,7 +1477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1487,17 +1488,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1507,14 +1528,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.55</v>
+          <t>540008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>114.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6109</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1523,14 +1566,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.61</v>
+          <t>011578</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5895</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1539,14 +1604,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.51</v>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6766</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1555,13 +1642,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011579</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2735</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300070-碧水源.xlsx
+++ b/数据整理/stocks/A股/创业板/300070-碧水源.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1723,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1734,17 +1735,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1754,14 +1775,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.15</v>
+          <t>540008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>96.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2495</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1770,14 +1813,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.55</v>
+          <t>011578</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3711</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1786,14 +1851,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>011579</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1887</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>3.61</v>
+        <v>10.55</v>
       </c>
     </row>
     <row r="5">
@@ -1802,14 +1973,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.51</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="6">
@@ -1818,13 +1989,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300070-碧水源.xlsx
+++ b/数据整理/stocks/A股/创业板/300070-碧水源.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,167 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161838</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.77</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>62.18</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4997</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>210002</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>金鹰红利价值混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>74.22</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0304</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001899</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东海中证社会发展安全产业主题指数</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.16</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0068</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="D6" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.54</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -626,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -677,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161838</t>
+          <t>540008</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华创业板两年定期开放混合</t>
+          <t>汇丰晋信低碳先锋股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.97</t>
+          <t>96.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.86</t>
+          <t>93.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5035</t>
+          <t>3.2495</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -715,36 +677,74 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001849</t>
+          <t>011578</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源强势共识100强等权重股票</t>
+          <t>汇丰晋信核心成长混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>31.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>91.97</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0058</t>
+          <t>1.3711</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011579</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1887</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -779,7 +779,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -819,22 +819,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>86.69</t>
+          <t>114.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>94.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.1555</t>
+          <t>4.6109</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -847,36 +847,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161838</t>
+          <t>011578</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银华创业板两年定期开放混合</t>
+          <t>汇丰晋信核心成长混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.67</t>
+          <t>49.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.98</t>
+          <t>94.60</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4396</t>
+          <t>2.5895</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -885,36 +885,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>512780</t>
+          <t>161838</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发中证京津冀协同发展主题ETF</t>
+          <t>银华创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>12.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.47</t>
+          <t>94.73</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0074</t>
+          <t>0.6766</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -923,36 +923,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>164811</t>
+          <t>011579</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+          <t>汇丰晋信核心成长混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>94.60</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0034</t>
+          <t>0.2735</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -961,36 +961,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>164825</t>
+          <t>001899</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+          <t>东海中证社会发展安全产业主题指数</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>91.71</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0037</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1539,22 +1539,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>114.70</t>
+          <t>86.69</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>93.60</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.6109</t>
+          <t>3.1555</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1567,36 +1567,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011578</t>
+          <t>161838</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信核心成长混合型证券投资基金A</t>
+          <t>银华创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>49.99</t>
+          <t>10.67</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.60</t>
+          <t>95.98</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.5895</t>
+          <t>0.4396</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1605,36 +1605,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161838</t>
+          <t>512780</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华创业板两年定期开放混合</t>
+          <t>广发中证京津冀协同发展主题ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.28</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>98.47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6766</t>
+          <t>0.0074</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1643,36 +1643,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011579</t>
+          <t>164811</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇丰晋信核心成长混合型证券投资基金C</t>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.60</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2735</t>
+          <t>0.0034</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1681,36 +1681,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001899</t>
+          <t>164825</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>东海中证社会发展安全产业主题指数</t>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.71</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0037</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1724,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1775,36 +1775,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>540008</t>
+          <t>161838</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信低碳先锋股票</t>
+          <t>银华创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>96.71</t>
+          <t>9.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>95.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.2495</t>
+          <t>0.5035</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1813,74 +1813,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011578</t>
+          <t>001849</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信核心成长混合型证券投资基金A</t>
+          <t>前海开源强势共识100强等权重股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>31.02</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.97</t>
+          <t>93.24</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.3711</t>
+          <t>0.0058</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011579</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇丰晋信核心成长混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.97</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1887</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1894,128 +1856,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.81</v>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4997</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
-        <v>8.15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.55</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.61</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.54</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300070-碧水源.xlsx
+++ b/数据整理/stocks/A股/创业板/300070-碧水源.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>4.81</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>8.15</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>10.55</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>3.61</v>
+        <v>10.55</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.51</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -583,6 +600,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>517160</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证长江保护主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3722</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>517330</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证长江保护主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3618</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -752,7 +977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -998,7 +1223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1472,7 +1697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1718,7 +1943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1850,7 +2075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300070-碧水源.xlsx
+++ b/数据整理/stocks/A股/创业板/300070-碧水源.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>4.81</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>8.15</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>10.55</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>3.61</v>
+        <v>10.55</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.51</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -600,6 +617,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>517160</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证长江保护主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4042</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>517330</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证长江保护主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3969</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -807,7 +956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -977,7 +1126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1223,7 +1372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1697,7 +1846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1943,7 +2092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2075,7 +2224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
